--- a/Individual Student Checklist.xlsx
+++ b/Individual Student Checklist.xlsx
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1342,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="22">
         <v>4</v>
@@ -1393,19 +1393,19 @@
         <v>3</v>
       </c>
       <c r="S4" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U4" s="20"/>
       <c r="V4" s="22">
         <f>COUNTIF(B4:T4,1)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" s="22">
         <f>COUNTIF(B4:T4,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" s="22">
         <f>COUNTIF(B4:T4,3)</f>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="Y4" s="22">
         <f>COUNTIF(B4:T4,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">

--- a/Individual Student Checklist.xlsx
+++ b/Individual Student Checklist.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MiniThings\"/>
@@ -728,6 +728,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -771,72 +837,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,46 +1173,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
       <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="47"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="32"/>
     </row>
     <row r="2" spans="1:25" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1273,25 +1273,25 @@
       <c r="U2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="50"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="35"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="36">
         <v>0.09</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="51">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36">
         <v>0.08</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1304,23 +1304,23 @@
       <c r="K3" s="15">
         <v>0.05</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="39">
         <v>0.05</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="15">
         <v>0.05</v>
       </c>
       <c r="P3" s="15">
         <v>0.05</v>
       </c>
-      <c r="Q3" s="57">
+      <c r="Q3" s="42">
         <v>0.08</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
       <c r="U3" s="16">
         <v>0.15</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L4" s="22">
         <v>1</v>
@@ -1401,7 +1401,7 @@
       <c r="U4" s="20"/>
       <c r="V4" s="22">
         <f>COUNTIF(B4:T4,1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W4" s="22">
         <f>COUNTIF(B4:T4,2)</f>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="Y4" s="22">
         <f>COUNTIF(B4:T4,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1438,51 +1438,57 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="V1:Y2"/>
@@ -1490,12 +1496,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
